--- a/maptime.xlsx
+++ b/maptime.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rouja\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User458\Desktop\things ill delete after 1 semester\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5256BD2D-B259-4830-BD25-174E8D7114E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8863DB0F-B205-43C8-8DC6-6F07F6F29460}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{7AC7B2BA-3A59-4973-85FD-0C20404AAB19}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7AC7B2BA-3A59-4973-85FD-0C20404AAB19}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="76">
   <si>
     <t>Name</t>
   </si>
@@ -124,6 +124,144 @@
   </si>
   <si>
     <t>1167 Minamitsuru-gun, Yamanashi</t>
+  </si>
+  <si>
+    <t>New Sanko Restaurant</t>
+  </si>
+  <si>
+    <t>Otaru</t>
+  </si>
+  <si>
+    <t>Hokkaido 047-0032</t>
+  </si>
+  <si>
+    <t>1-3-6 Inaho</t>
+  </si>
+  <si>
+    <t>Sapporo Ichiryuan</t>
+  </si>
+  <si>
+    <t>Sapporo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hokkaido 060-0004 </t>
+  </si>
+  <si>
+    <t> B1, Hokuren Bldg., 1-1, Kitayonjo Nishi, Chuo-ku</t>
+  </si>
+  <si>
+    <t>Yamasan Michishita Shoten</t>
+  </si>
+  <si>
+    <t>Hakodate</t>
+  </si>
+  <si>
+    <t>Hokkaido 040-0063</t>
+  </si>
+  <si>
+    <t>9-15 Wakamatsucho</t>
+  </si>
+  <si>
+    <t>Soup Curry Shabazo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hokkaido 060-0600 </t>
+  </si>
+  <si>
+    <t>B1, Sapporo North Plaza, 4, Kitaichijo Nishi, Chuo-ku</t>
+  </si>
+  <si>
+    <t>Masa Zushi</t>
+  </si>
+  <si>
+    <t>Hokkaido 047-0024</t>
+  </si>
+  <si>
+    <t>1 Chome-1-1 Hanazono</t>
+  </si>
+  <si>
+    <t>Matsusakagyu Yakiniku</t>
+  </si>
+  <si>
+    <t>Chuo</t>
+  </si>
+  <si>
+    <t>Osaka 542-0076</t>
+  </si>
+  <si>
+    <t>1-1-19, Namba</t>
+  </si>
+  <si>
+    <t>Okonomiyaki Chitose</t>
+  </si>
+  <si>
+    <t>Nishinari Ward</t>
+  </si>
+  <si>
+    <t>Osaka 557-0002</t>
+  </si>
+  <si>
+    <t>1 Chome-11-10 Taishi</t>
+  </si>
+  <si>
+    <t>Curry Yakumido</t>
+  </si>
+  <si>
+    <t>Haginochaya</t>
+  </si>
+  <si>
+    <t>Osaka 557-0004</t>
+  </si>
+  <si>
+    <t>2 Chome-2-10</t>
+  </si>
+  <si>
+    <t>Steakhouse Kozai</t>
+  </si>
+  <si>
+    <t>Osaka 542-0083</t>
+  </si>
+  <si>
+    <t>1 Chome-17-15 Higashishinsaibashi</t>
+  </si>
+  <si>
+    <t>Ali's Kitchen Osaka Halal Restaurant</t>
+  </si>
+  <si>
+    <t>Osaka 542-0085</t>
+  </si>
+  <si>
+    <t>1 Chome-10-12 Shinsaibashisuji</t>
+  </si>
+  <si>
+    <t>Hotokura Funari Fruitsline</t>
+  </si>
+  <si>
+    <t>Yamanashi</t>
+  </si>
+  <si>
+    <t>Yamanashi 405-0031</t>
+  </si>
+  <si>
+    <t>1091 Manriki</t>
+  </si>
+  <si>
+    <t>Himawari Tei</t>
+  </si>
+  <si>
+    <t>Fujikawaguchiko</t>
+  </si>
+  <si>
+    <t>Yamanashi 401-0301</t>
+  </si>
+  <si>
+    <t>7364-2 Funatsu</t>
+  </si>
+  <si>
+    <t>Sanrokuen</t>
+  </si>
+  <si>
+    <t>3370-1 Funatsu</t>
   </si>
 </sst>
 </file>
@@ -484,22 +622,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63B4E79D-8E2D-4666-B576-AFED5E04EF45}">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="22.36328125" customWidth="1"/>
-    <col min="3" max="3" width="21.08984375" customWidth="1"/>
-    <col min="4" max="4" width="36.26953125" customWidth="1"/>
-    <col min="5" max="5" width="12.1796875" customWidth="1"/>
-    <col min="6" max="6" width="12.54296875" customWidth="1"/>
+    <col min="1" max="2" width="22.42578125" customWidth="1"/>
+    <col min="3" max="3" width="21.140625" customWidth="1"/>
+    <col min="4" max="4" width="36.28515625" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -519,127 +657,390 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2">
+        <v>35.167411999999999</v>
+      </c>
+      <c r="F2">
+        <v>136.87330600000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E3">
+        <v>41.7726921927474</v>
+      </c>
+      <c r="F3">
+        <v>140.72617457862</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E4">
+        <v>44.680093291771797</v>
+      </c>
+      <c r="F4">
+        <v>140.890623885206</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5">
+        <v>43.195314008878398</v>
+      </c>
+      <c r="F5">
+        <v>140.99911878456399</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6">
+        <v>43.067124839272097</v>
+      </c>
+      <c r="F6">
+        <v>141.354138867552</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D7" t="s">
+        <v>44</v>
+      </c>
+      <c r="E7">
+        <v>43.116771913506902</v>
+      </c>
+      <c r="F7">
+        <v>141.35840197578199</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>9</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B8" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C8" t="s">
         <v>7</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D8" t="s">
         <v>8</v>
       </c>
-      <c r="E2">
+      <c r="E8">
         <v>43.805714000000002</v>
       </c>
-      <c r="F2">
+      <c r="F8">
         <v>142.43052700000001</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3">
-        <v>35.167411999999999</v>
-      </c>
-      <c r="F3">
-        <v>136.87330600000001</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9">
+        <v>34.693376000000001</v>
+      </c>
+      <c r="F9">
+        <v>135.1899196</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>14</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B10" t="s">
         <v>15</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C10" t="s">
         <v>17</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D10" t="s">
         <v>16</v>
       </c>
-      <c r="E4">
+      <c r="E10">
         <v>34.703026000000001</v>
       </c>
-      <c r="F4">
+      <c r="F10">
         <v>135.48947100000001</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>48</v>
+      </c>
+      <c r="B11" t="s">
+        <v>49</v>
+      </c>
+      <c r="C11" t="s">
+        <v>50</v>
+      </c>
+      <c r="D11" t="s">
+        <v>51</v>
+      </c>
+      <c r="E11">
+        <v>34.692269665704401</v>
+      </c>
+      <c r="F11">
+        <v>135.50911722815599</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>60</v>
+      </c>
+      <c r="B12" t="s">
+        <v>49</v>
+      </c>
+      <c r="C12" t="s">
+        <v>61</v>
+      </c>
+      <c r="D12" t="s">
+        <v>62</v>
+      </c>
+      <c r="E12">
+        <v>35.463249573212799</v>
+      </c>
+      <c r="F12">
+        <v>135.663244782601</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>63</v>
+      </c>
+      <c r="B13" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13" t="s">
+        <v>64</v>
+      </c>
+      <c r="D13" t="s">
+        <v>65</v>
+      </c>
+      <c r="E13">
+        <v>34.6748065646836</v>
+      </c>
+      <c r="F13">
+        <v>135.500938096878</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>52</v>
+      </c>
+      <c r="B14" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14" t="s">
+        <v>54</v>
+      </c>
+      <c r="D14" t="s">
+        <v>55</v>
+      </c>
+      <c r="E14">
+        <v>34.893970861434198</v>
+      </c>
+      <c r="F14">
+        <v>135.563846872672</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>56</v>
+      </c>
+      <c r="B15" t="s">
+        <v>57</v>
+      </c>
+      <c r="C15" t="s">
+        <v>58</v>
+      </c>
+      <c r="D15" t="s">
+        <v>59</v>
+      </c>
+      <c r="E15">
+        <v>34.909547149518403</v>
+      </c>
+      <c r="F15">
+        <v>135.436494507135</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>18</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B16" t="s">
         <v>21</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C16" t="s">
         <v>20</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D16" t="s">
         <v>19</v>
       </c>
-      <c r="E5">
+      <c r="E16">
         <v>35.675719999999998</v>
       </c>
-      <c r="F5">
+      <c r="F16">
         <v>139.736099</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6">
-        <v>34.693376000000001</v>
-      </c>
-      <c r="F6">
-        <v>135.1899196</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>70</v>
+      </c>
+      <c r="B17" t="s">
+        <v>71</v>
+      </c>
+      <c r="C17" t="s">
+        <v>72</v>
+      </c>
+      <c r="D17" t="s">
+        <v>73</v>
+      </c>
+      <c r="E17">
+        <v>35.471925338743297</v>
+      </c>
+      <c r="F17">
+        <v>138.74964044721699</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>74</v>
+      </c>
+      <c r="B18" t="s">
+        <v>71</v>
+      </c>
+      <c r="C18" t="s">
+        <v>72</v>
+      </c>
+      <c r="D18" t="s">
+        <v>75</v>
+      </c>
+      <c r="E18">
+        <v>35.515319954042397</v>
+      </c>
+      <c r="F18">
+        <v>138.80705504684801</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>28</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B19" t="s">
         <v>26</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C19" t="s">
         <v>27</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D19" t="s">
         <v>29</v>
       </c>
-      <c r="E7">
+      <c r="E19">
         <v>35.431989000000002</v>
       </c>
-      <c r="F7">
+      <c r="F19">
         <v>138.84306699999999</v>
       </c>
     </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>66</v>
+      </c>
+      <c r="B20" t="s">
+        <v>67</v>
+      </c>
+      <c r="C20" t="s">
+        <v>68</v>
+      </c>
+      <c r="D20" t="s">
+        <v>69</v>
+      </c>
+      <c r="E20">
+        <v>35.690321286489102</v>
+      </c>
+      <c r="F20">
+        <v>138.67492781028199</v>
+      </c>
+    </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F20">
+    <sortCondition ref="C2:C20"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -655,6 +1056,12 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100873CAF38A3580B4FAD5ED0FF5AC7CE77" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="e0f04003691796fa510e5a516975a48f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="f386039b-bb7a-4e97-8c50-880cffc65c2a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="86d2048c3478f99813c5abddf7cf4d6b" ns3:_="">
     <xsd:import namespace="f386039b-bb7a-4e97-8c50-880cffc65c2a"/>
@@ -800,12 +1207,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C5C521D-2438-4EBF-83B2-B1C649A5B204}">
   <ds:schemaRefs>
@@ -815,6 +1216,22 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{689E4211-D618-42FA-A6BB-885662006B8C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="f386039b-bb7a-4e97-8c50-880cffc65c2a"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{23915999-C29B-42E5-AD9E-FBA37BDFECDB}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -830,20 +1247,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{689E4211-D618-42FA-A6BB-885662006B8C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="f386039b-bb7a-4e97-8c50-880cffc65c2a"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>